--- a/上机/第2次机试练习/2019-11-11.xlsx
+++ b/上机/第2次机试练习/2019-11-11.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\上机\第2次机试练习\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D4317B-24F7-42C7-8324-81AB13E83DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="552" windowWidth="17952" windowHeight="8436"/>
+    <workbookView xWindow="612" yWindow="552" windowWidth="17952" windowHeight="8436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS006001060" sheetId="1" r:id="rId1"/>
@@ -751,7 +757,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -804,6 +810,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -851,7 +860,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,9 +893,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,6 +945,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1094,11 +1137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1158,72 +1201,72 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>700</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -1235,25 +1278,25 @@
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -1264,22 +1307,22 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -1294,86 +1337,86 @@
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4">
         <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P4">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="Q4">
-        <v>700</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L5">
         <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>700</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1382,19 +1425,19 @@
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -1406,13 +1449,13 @@
         <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -1423,34 +1466,34 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -1459,36 +1502,36 @@
         <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>700</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -1512,39 +1555,39 @@
         <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -1553,10 +1596,10 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -1565,36 +1608,36 @@
         <v>100</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9">
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -1606,39 +1649,39 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>700</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1647,28 +1690,28 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>21</v>
@@ -1677,45 +1720,45 @@
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -1724,27 +1767,27 @@
         <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>700</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1753,51 +1796,51 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>31</v>
       </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
       <c r="L13">
         <v>100</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>700</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1806,7 +1849,7 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -1818,7 +1861,7 @@
         <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -1830,7 +1873,7 @@
         <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>100</v>
@@ -1847,25 +1890,25 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -1877,19 +1920,19 @@
         <v>100</v>
       </c>
       <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
         <v>22</v>
       </c>
-      <c r="L15">
-        <v>100</v>
-      </c>
-      <c r="M15" t="s">
-        <v>21</v>
-      </c>
       <c r="N15">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15">
         <v>100</v>
@@ -1900,116 +1943,116 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>700</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -2018,10 +2061,10 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -2030,113 +2073,113 @@
         <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>700</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>22</v>
       </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
       <c r="H19">
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>700</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H20">
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -2148,39 +2191,39 @@
         <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>700</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -2189,54 +2232,54 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>700</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -2254,66 +2297,66 @@
         <v>100</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O22" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="P22">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q22">
-        <v>700</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23" t="s">
         <v>26</v>
       </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
-      <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23">
-        <v>100</v>
-      </c>
-      <c r="M23" t="s">
-        <v>31</v>
-      </c>
       <c r="N23">
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P23">
         <v>100</v>
@@ -2324,10 +2367,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
@@ -2336,19 +2379,19 @@
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -2360,7 +2403,7 @@
         <v>100</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="N24">
         <v>100</v>
@@ -2377,13 +2420,13 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -2401,25 +2444,25 @@
         <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25" t="s">
         <v>25</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
-      </c>
-      <c r="M25" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25">
-        <v>100</v>
-      </c>
-      <c r="O25" t="s">
-        <v>21</v>
       </c>
       <c r="P25">
         <v>100</v>
@@ -2430,37 +2473,37 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H26">
         <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L26">
         <v>100</v>
@@ -2472,7 +2515,7 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="P26">
         <v>100</v>
@@ -2483,13 +2526,13 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -2507,42 +2550,42 @@
         <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L27">
         <v>100</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -2572,39 +2615,39 @@
         <v>100</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N28">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>700</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
         <v>21</v>
@@ -2613,39 +2656,39 @@
         <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L29">
         <v>100</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="O29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>700</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -2654,7 +2697,7 @@
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -2666,19 +2709,19 @@
         <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L30">
         <v>100</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -2695,63 +2738,63 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31" t="s">
         <v>31</v>
       </c>
-      <c r="D31">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31">
-        <v>100</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31">
-        <v>100</v>
-      </c>
-      <c r="M31" t="s">
-        <v>22</v>
-      </c>
       <c r="N31">
         <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="P31">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Q31">
-        <v>700</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -2760,7 +2803,7 @@
         <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F32">
         <v>100</v>
@@ -2772,7 +2815,7 @@
         <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32">
         <v>100</v>
@@ -2784,13 +2827,13 @@
         <v>100</v>
       </c>
       <c r="M32" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>100</v>
       </c>
       <c r="O32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P32">
         <v>100</v>
@@ -2801,19 +2844,19 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F33">
         <v>100</v>
@@ -2825,25 +2868,25 @@
         <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L33">
         <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>100</v>
       </c>
       <c r="O33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P33">
         <v>100</v>
@@ -2854,13 +2897,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -2872,45 +2915,45 @@
         <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34">
         <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="J34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -2919,90 +2962,90 @@
         <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H35">
         <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L35">
         <v>100</v>
       </c>
       <c r="M35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>100</v>
       </c>
       <c r="O35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36">
         <v>100</v>
       </c>
       <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
         <v>26</v>
       </c>
-      <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36">
-        <v>100</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>100</v>
+      </c>
+      <c r="M36" t="s">
         <v>31</v>
       </c>
-      <c r="J36">
-        <v>100</v>
-      </c>
-      <c r="K36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36">
-        <v>100</v>
-      </c>
-      <c r="M36" t="s">
-        <v>26</v>
-      </c>
       <c r="N36">
         <v>100</v>
       </c>
       <c r="O36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P36">
         <v>100</v>
@@ -3013,13 +3056,13 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="D37">
         <v>100</v>
@@ -3031,13 +3074,13 @@
         <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37">
         <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="J37">
         <v>100</v>
@@ -3049,107 +3092,107 @@
         <v>100</v>
       </c>
       <c r="M37" t="s">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>100</v>
       </c>
       <c r="O37" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="P37">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="Q37">
-        <v>700</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38">
         <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F38">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H38">
         <v>100</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L38">
         <v>100</v>
       </c>
       <c r="M38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>100</v>
       </c>
       <c r="O38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P38">
         <v>100</v>
       </c>
       <c r="Q38">
-        <v>680</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39" t="s">
         <v>26</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39">
-        <v>80</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39">
-        <v>100</v>
-      </c>
-      <c r="I39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39">
-        <v>100</v>
-      </c>
-      <c r="K39" t="s">
-        <v>31</v>
       </c>
       <c r="L39">
         <v>100</v>
@@ -3161,110 +3204,110 @@
         <v>100</v>
       </c>
       <c r="O39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P39">
         <v>100</v>
       </c>
       <c r="Q39">
-        <v>680</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F40">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="J40">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="L40">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M40" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="N40">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P40">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>675</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F41">
         <v>100</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H41">
         <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L41">
         <v>100</v>
       </c>
       <c r="M41" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N41">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O41" t="s">
         <v>21</v>
@@ -3273,24 +3316,24 @@
         <v>100</v>
       </c>
       <c r="Q41">
-        <v>675</v>
+        <v>700</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42">
         <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F42">
         <v>100</v>
@@ -3302,51 +3345,51 @@
         <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L42">
         <v>100</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="P42">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q42">
-        <v>650</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D43">
         <v>100</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F43">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G43" t="s">
         <v>21</v>
@@ -3361,319 +3404,319 @@
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L43">
         <v>100</v>
       </c>
       <c r="M43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N43">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P43">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>640</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44" t="s">
         <v>31</v>
       </c>
-      <c r="D44">
-        <v>100</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44">
-        <v>100</v>
-      </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="L44">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M44" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N44">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="P44">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q44">
-        <v>640</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45" t="s">
         <v>25</v>
       </c>
-      <c r="D45">
-        <v>100</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45">
-        <v>100</v>
-      </c>
-      <c r="I45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45">
-        <v>100</v>
-      </c>
-      <c r="M45" t="s">
-        <v>54</v>
-      </c>
       <c r="N45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O45" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="P45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q45">
-        <v>630</v>
+        <v>700</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D46">
         <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46" t="s">
         <v>22</v>
       </c>
-      <c r="J46">
-        <v>100</v>
-      </c>
-      <c r="K46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46">
-        <v>100</v>
-      </c>
-      <c r="M46" t="s">
-        <v>54</v>
-      </c>
       <c r="N46">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="O46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>625</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H47">
         <v>100</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L47">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N47">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="P47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>620</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48">
+        <v>50</v>
+      </c>
+      <c r="I48" t="s">
         <v>22</v>
       </c>
-      <c r="F48">
-        <v>100</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48">
-        <v>100</v>
-      </c>
-      <c r="I48" t="s">
-        <v>31</v>
-      </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="P48">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>620</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D49">
         <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H49">
         <v>100</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49">
         <v>100</v>
@@ -3685,36 +3728,36 @@
         <v>100</v>
       </c>
       <c r="M49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>100</v>
       </c>
       <c r="O49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P49">
         <v>100</v>
       </c>
       <c r="Q49">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D50">
         <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F50">
         <v>100</v>
@@ -3726,39 +3769,39 @@
         <v>100</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L50">
         <v>100</v>
       </c>
       <c r="M50" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P50">
         <v>100</v>
       </c>
       <c r="Q50">
-        <v>600</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
         <v>21</v>
@@ -3767,10 +3810,10 @@
         <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
@@ -3779,7 +3822,7 @@
         <v>100</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51">
         <v>100</v>
@@ -3797,21 +3840,21 @@
         <v>100</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
@@ -3832,22 +3875,22 @@
         <v>100</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="J52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" t="s">
         <v>19</v>
@@ -3856,71 +3899,71 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H53">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L53">
         <v>100</v>
       </c>
       <c r="M53" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="N53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q53">
-        <v>600</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54">
         <v>100</v>
@@ -3932,26 +3975,26 @@
         <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H54">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
         <v>22</v>
       </c>
-      <c r="J54">
-        <v>100</v>
-      </c>
-      <c r="K54" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54">
-        <v>100</v>
-      </c>
-      <c r="M54" t="s">
-        <v>21</v>
-      </c>
       <c r="N54">
         <v>100</v>
       </c>
@@ -3962,36 +4005,36 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D55">
         <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F55">
         <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H55">
         <v>100</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J55">
         <v>100</v>
@@ -4003,27 +4046,27 @@
         <v>100</v>
       </c>
       <c r="M55" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="N55">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q55">
-        <v>575</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
         <v>21</v>
@@ -4032,7 +4075,7 @@
         <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F56">
         <v>80</v>
@@ -4044,107 +4087,107 @@
         <v>100</v>
       </c>
       <c r="I56" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J56">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L56">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="P56">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>570</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D57">
         <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F57">
         <v>100</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="J57">
         <v>100</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L57">
         <v>100</v>
       </c>
       <c r="M57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="P57">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>560</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D58">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H58">
         <v>100</v>
@@ -4162,33 +4205,33 @@
         <v>100</v>
       </c>
       <c r="M58" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N58">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58">
-        <v>530</v>
+        <v>640</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -4203,42 +4246,42 @@
         <v>100</v>
       </c>
       <c r="I59" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J59">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L59">
         <v>100</v>
       </c>
       <c r="M59" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="N59">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P59">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q59">
-        <v>515</v>
+        <v>700</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60">
         <v>100</v>
@@ -4250,28 +4293,28 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H60">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J60">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L60">
         <v>100</v>
       </c>
       <c r="M60" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N60">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O60" t="s">
         <v>19</v>
@@ -4280,15 +4323,15 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
@@ -4297,61 +4340,61 @@
         <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F61">
         <v>100</v>
       </c>
       <c r="G61" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H61">
         <v>100</v>
       </c>
       <c r="I61" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="J61">
         <v>100</v>
       </c>
       <c r="K61" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="L61">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61">
+        <v>100</v>
+      </c>
+      <c r="O61" t="s">
         <v>53</v>
       </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61" t="s">
-        <v>54</v>
-      </c>
       <c r="P61">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
         <v>25</v>
       </c>
-      <c r="D62">
-        <v>100</v>
-      </c>
-      <c r="E62" t="s">
-        <v>20</v>
-      </c>
       <c r="F62">
         <v>100</v>
       </c>
@@ -4368,33 +4411,33 @@
         <v>100</v>
       </c>
       <c r="K62" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L62">
         <v>100</v>
       </c>
       <c r="M62" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q62">
-        <v>500</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
         <v>21</v>
@@ -4403,10 +4446,10 @@
         <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s">
         <v>21</v>
@@ -4415,10 +4458,10 @@
         <v>100</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
@@ -4433,21 +4476,21 @@
         <v>100</v>
       </c>
       <c r="O63" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P63">
         <v>100</v>
       </c>
       <c r="Q63">
-        <v>500</v>
+        <v>680</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
@@ -4456,10 +4499,10 @@
         <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G64" t="s">
         <v>21</v>
@@ -4468,19 +4511,19 @@
         <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J64">
         <v>100</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L64">
         <v>100</v>
       </c>
       <c r="M64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>100</v>
@@ -4492,37 +4535,37 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D65">
         <v>100</v>
       </c>
       <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="I65" t="s">
         <v>31</v>
       </c>
-      <c r="F65">
-        <v>100</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65">
-        <v>100</v>
-      </c>
-      <c r="I65" t="s">
-        <v>25</v>
-      </c>
       <c r="J65">
         <v>100</v>
       </c>
@@ -4533,48 +4576,48 @@
         <v>100</v>
       </c>
       <c r="M65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O65" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q65">
-        <v>500</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D66">
         <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F66">
         <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="J66">
         <v>100</v>
@@ -4592,42 +4635,42 @@
         <v>100</v>
       </c>
       <c r="O66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D67">
         <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F67">
         <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H67">
         <v>100</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J67">
         <v>100</v>
@@ -4639,39 +4682,39 @@
         <v>100</v>
       </c>
       <c r="M67" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q67">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F68">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
         <v>21</v>
@@ -4680,42 +4723,42 @@
         <v>100</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J68">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L68">
         <v>100</v>
       </c>
       <c r="M68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N68">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="O68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q68">
-        <v>480</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D69">
         <v>100</v>
@@ -4724,63 +4767,63 @@
         <v>36</v>
       </c>
       <c r="F69">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H69">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J69">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="L69">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O69" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q69">
-        <v>480</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D70">
         <v>100</v>
       </c>
       <c r="E70" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F70">
         <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H70">
         <v>100</v>
@@ -4792,33 +4835,33 @@
         <v>100</v>
       </c>
       <c r="K70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q70">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
@@ -4827,19 +4870,19 @@
         <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I71" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="J71">
         <v>100</v>
@@ -4851,42 +4894,42 @@
         <v>100</v>
       </c>
       <c r="M71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N71">
         <v>100</v>
       </c>
       <c r="O71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q71">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D72">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>100</v>
@@ -4904,10 +4947,10 @@
         <v>100</v>
       </c>
       <c r="M72" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O72" t="s">
         <v>19</v>
@@ -4916,27 +4959,27 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>400</v>
+        <v>530</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73">
         <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F73">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
         <v>21</v>
@@ -4945,116 +4988,116 @@
         <v>100</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J73">
         <v>100</v>
       </c>
       <c r="K73" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q73">
-        <v>380</v>
+        <v>700</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D74">
         <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="F74">
         <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H74">
         <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J74">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q74">
-        <v>375</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F75">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G75" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H75">
         <v>100</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K75" t="s">
         <v>21</v>
@@ -5063,57 +5106,57 @@
         <v>100</v>
       </c>
       <c r="M75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q75">
-        <v>340</v>
+        <v>700</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F76">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H76">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L76">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M76" t="s">
         <v>19</v>
@@ -5128,21 +5171,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>340</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -5151,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I77" t="s">
         <v>21</v>
@@ -5163,39 +5206,39 @@
         <v>100</v>
       </c>
       <c r="K77" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L77">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="N77">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="P77">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>330</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D78">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
@@ -5204,22 +5247,22 @@
         <v>100</v>
       </c>
       <c r="G78" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H78">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J78">
         <v>100</v>
       </c>
       <c r="K78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M78" t="s">
         <v>19</v>
@@ -5228,24 +5271,24 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q78">
-        <v>330</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79">
         <v>100</v>
@@ -5257,16 +5300,16 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H79">
         <v>100</v>
       </c>
       <c r="I79" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="J79">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K79" t="s">
         <v>21</v>
@@ -5287,68 +5330,68 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>325</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="C80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
         <v>22</v>
       </c>
-      <c r="D80">
-        <v>100</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="J80">
+        <v>100</v>
+      </c>
+      <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80">
+        <v>100</v>
+      </c>
+      <c r="M80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80">
+        <v>100</v>
+      </c>
+      <c r="O80" t="s">
         <v>52</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80">
-        <v>100</v>
-      </c>
-      <c r="I80" t="s">
-        <v>234</v>
-      </c>
-      <c r="J80">
-        <v>25</v>
-      </c>
-      <c r="K80" t="s">
-        <v>19</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" t="s">
-        <v>19</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80" t="s">
-        <v>31</v>
-      </c>
       <c r="P80">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>325</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
         <v>20</v>
@@ -5357,87 +5400,87 @@
         <v>100</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F81">
         <v>100</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H81">
         <v>100</v>
       </c>
       <c r="I81" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82">
         <v>100</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J82">
         <v>100</v>
       </c>
       <c r="K82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N82">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O82" t="s">
         <v>19</v>
@@ -5446,92 +5489,92 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D83">
         <v>100</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H83">
         <v>100</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N83">
         <v>100</v>
       </c>
       <c r="O83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D84">
         <v>100</v>
       </c>
       <c r="E84" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F84">
         <v>100</v>
       </c>
       <c r="G84" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I84" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K84" t="s">
         <v>19</v>
@@ -5540,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N84">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O84" t="s">
         <v>19</v>
@@ -5552,15 +5595,15 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
         <v>21</v>
@@ -5569,7 +5612,7 @@
         <v>100</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F85">
         <v>100</v>
@@ -5581,42 +5624,42 @@
         <v>100</v>
       </c>
       <c r="I85" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K85" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M85" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O85" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q85">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D86">
         <v>100</v>
@@ -5628,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H86">
         <v>100</v>
@@ -5640,151 +5683,151 @@
         <v>100</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M86" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q86">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D87">
         <v>100</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H87">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K87" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N87">
         <v>100</v>
       </c>
       <c r="O87" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="P87">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D88">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E88" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F88">
+        <v>100</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+      <c r="I88" t="s">
+        <v>52</v>
+      </c>
+      <c r="J88">
+        <v>25</v>
+      </c>
+      <c r="K88" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88">
+        <v>100</v>
+      </c>
+      <c r="M88" t="s">
+        <v>52</v>
+      </c>
+      <c r="N88">
+        <v>50</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88">
         <v>80</v>
       </c>
-      <c r="G88" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88">
-        <v>100</v>
-      </c>
-      <c r="I88" t="s">
-        <v>19</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>19</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" t="s">
-        <v>19</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88" t="s">
-        <v>19</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
       <c r="Q88">
-        <v>280</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D89">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E89" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" t="s">
         <v>21</v>
@@ -5799,139 +5842,139 @@
         <v>100</v>
       </c>
       <c r="K89" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89">
-        <v>280</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D90">
         <v>100</v>
       </c>
       <c r="E90" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>100</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M90" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N90">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q90">
-        <v>275</v>
+        <v>700</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D91">
         <v>100</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F91">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H91">
         <v>100</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K91" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M91" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O91" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q91">
-        <v>240</v>
+        <v>700</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
         <v>21</v>
@@ -5940,63 +5983,63 @@
         <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F92">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H92">
         <v>100</v>
       </c>
       <c r="I92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K92" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M92" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q92">
-        <v>240</v>
+        <v>700</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F93">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>19</v>
@@ -6011,16 +6054,16 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L93">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N93">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O93" t="s">
         <v>19</v>
@@ -6029,27 +6072,27 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="D94">
         <v>100</v>
       </c>
       <c r="E94" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G94" t="s">
         <v>21</v>
@@ -6058,69 +6101,69 @@
         <v>100</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M94" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O94" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q94">
-        <v>200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95">
         <v>100</v>
       </c>
       <c r="E95" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L95">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M95" t="s">
         <v>19</v>
@@ -6129,66 +6172,66 @@
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q95">
-        <v>200</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F96">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="L96">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M96" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N96">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q96">
-        <v>190</v>
+        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -6246,16 +6289,16 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C98" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
@@ -6264,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H98">
         <v>100</v>
@@ -6294,171 +6337,171 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D99">
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M99" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O99" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q99">
-        <v>100</v>
+        <v>625</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F100">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100">
-        <v>60</v>
+        <v>700</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B101" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O101" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Q102">
-    <sortCondition descending="1" ref="Q2:Q102"/>
+  <sortState ref="A2:Q101">
+    <sortCondition ref="A2:A101"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
